--- a/软件工程系列课程教学辅助网站/非受控文档/总结报告/总评.xlsx
+++ b/软件工程系列课程教学辅助网站/非受控文档/总结报告/总评.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="总评" sheetId="1" r:id="rId1"/>
@@ -15,130 +15,86 @@
     <sheet name="陈安侍" sheetId="6" r:id="rId6"/>
     <sheet name="雷达图" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>姓名</t>
+  </si>
   <si>
     <t>杨溢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>严翔宇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>陈  维</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>陈俊杉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>陈安侍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>态度（20%）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作量（20%）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提交速度（30）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提交质量（30）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否服从分配（10%）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>对待任务态度（10%）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作量（20%）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对待任务态度（10%）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否服从分配</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>对待任务态度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提交速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提交质量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨溢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>严翔宇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>陈维</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈俊杉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈安侍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>平均</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,14 +102,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -162,7 +110,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -171,12 +118,147 @@
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,10 +268,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,43 +475,302 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="25" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="25" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="25" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="25" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="25" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="25" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="计算" xfId="2" builtinId="22"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -275,6 +797,22 @@
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -299,6 +837,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -332,16 +873,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96666666666666656</c:v>
+                  <c:v>0.966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82666666666666666</c:v>
+                  <c:v>0.826666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82000000000000006</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -369,6 +910,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="646207104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -380,7 +937,7 @@
         <c:axId val="646207104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
+          <c:max val="1.1"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -390,22 +947,63 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="131474432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
-        <c:minorUnit val="2.0000000000000004E-2"/>
+        <c:minorUnit val="0.02"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -431,6 +1029,22 @@
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -455,6 +1069,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -488,16 +1105,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95333333333333337</c:v>
+                  <c:v>0.966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80333333333333334</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81777777777777783</c:v>
+                  <c:v>0.817777777777778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7911111111111111</c:v>
+                  <c:v>0.811111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,6 +1142,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="650052160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -536,7 +1169,7 @@
         <c:axId val="650052160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
+          <c:max val="1.1"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -546,22 +1179,63 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="174009344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
-        <c:minorUnit val="2.0000000000000004E-2"/>
+        <c:minorUnit val="0.02"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -587,6 +1261,22 @@
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -611,6 +1301,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -644,16 +1337,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96666666666666656</c:v>
+                  <c:v>0.966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84333333333333338</c:v>
+                  <c:v>0.843333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85777777777777786</c:v>
+                  <c:v>0.857777777777778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81777777777777783</c:v>
+                  <c:v>0.817777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,6 +1374,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="650057344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -692,7 +1401,7 @@
         <c:axId val="650057344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
+          <c:max val="1.1"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -702,22 +1411,63 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="177669120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
-        <c:minorUnit val="2.0000000000000004E-2"/>
+        <c:minorUnit val="0.02"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -743,6 +1493,22 @@
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -767,6 +1533,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -806,10 +1575,10 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85333333333333339</c:v>
+                  <c:v>0.853333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8355555555555555</c:v>
+                  <c:v>0.835555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,6 +1606,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="650210688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -848,7 +1633,7 @@
         <c:axId val="650210688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
+          <c:max val="1.1"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -858,22 +1643,63 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="183873536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
-        <c:minorUnit val="2.0000000000000004E-2"/>
+        <c:minorUnit val="0.02"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -899,6 +1725,22 @@
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -923,6 +1765,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -959,13 +1804,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83666666666666667</c:v>
+                  <c:v>0.836666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85777777777777786</c:v>
+                  <c:v>0.857777777777778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82666666666666666</c:v>
+                  <c:v>0.826666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,6 +1838,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="650085504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1004,7 +1865,7 @@
         <c:axId val="650085504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
+          <c:max val="1.1"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1014,22 +1875,63 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="602602496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
-        <c:minorUnit val="2.0000000000000004E-2"/>
+        <c:minorUnit val="0.02"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1052,7 +1954,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
@@ -1075,6 +1977,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -1108,16 +2013,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96666666666666656</c:v>
+                  <c:v>0.966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82666666666666666</c:v>
+                  <c:v>0.826666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82000000000000006</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,6 +2045,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -1173,16 +2081,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95333333333333337</c:v>
+                  <c:v>0.966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80333333333333334</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81777777777777783</c:v>
+                  <c:v>0.817777777777778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7911111111111111</c:v>
+                  <c:v>0.811111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,6 +2113,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -1238,16 +2149,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96666666666666656</c:v>
+                  <c:v>0.966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84333333333333338</c:v>
+                  <c:v>0.843333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85777777777777786</c:v>
+                  <c:v>0.857777777777778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81777777777777783</c:v>
+                  <c:v>0.817777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,6 +2181,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -1309,10 +2223,10 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85333333333333339</c:v>
+                  <c:v>0.853333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8355555555555555</c:v>
+                  <c:v>0.835555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,6 +2249,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -1371,13 +2288,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83666666666666667</c:v>
+                  <c:v>0.836666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85777777777777786</c:v>
+                  <c:v>0.857777777777778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82666666666666666</c:v>
+                  <c:v>0.826666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,6 +2317,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>雷达图!$B$1:$F$1</c:f>
@@ -1433,16 +2353,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97733333333333339</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.838666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84266666666666679</c:v>
+                  <c:v>0.842666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81822222222222218</c:v>
+                  <c:v>0.822222222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,6 +2390,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="625497152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1481,7 +2417,7 @@
         <c:axId val="625497152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
+          <c:max val="1.1"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1491,22 +2427,63 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="174979584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
-        <c:minorUnit val="2.0000000000000004E-2"/>
+        <c:minorUnit val="0.02"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1516,7 +2493,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1530,14 +2507,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4686300" y="1573530"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1560,14 +2537,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9319260" y="1558290"/>
+        <a:ext cx="4610100" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1590,14 +2567,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="60960" y="4354830"/>
+        <a:ext cx="4579620" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1620,14 +2597,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4686300" y="4354830"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1650,14 +2627,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="图表 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9311640" y="4354830"/>
+        <a:ext cx="4610100" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1680,14 +2657,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="图表 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="76200" y="1558290"/>
+        <a:ext cx="4579620" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1981,26 +2958,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="5" width="8.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>2</v>
@@ -2049,9 +3026,9 @@
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>87</v>
@@ -2100,12 +3077,12 @@
       </c>
       <c r="Q2" s="1">
         <f>AVERAGE(B2:P2)</f>
-        <v>85.733333333333334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>85.7333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>85</v>
@@ -2114,19 +3091,19 @@
         <v>82</v>
       </c>
       <c r="D3" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1">
         <v>65</v>
       </c>
       <c r="F3" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I3" s="1">
         <v>86</v>
@@ -2138,13 +3115,13 @@
         <v>83</v>
       </c>
       <c r="L3" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M3" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N3" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="1">
         <v>93</v>
@@ -2154,12 +3131,12 @@
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q6" si="0">AVERAGE(B3:P3)</f>
-        <v>83.86666666666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>85.1333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>85</v>
@@ -2204,16 +3181,16 @@
         <v>89</v>
       </c>
       <c r="P4" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>86.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>86.8666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>85</v>
@@ -2262,12 +3239,12 @@
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>87.666666666666671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>87.6666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>85</v>
@@ -2316,33 +3293,34 @@
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>87.266666666666666</v>
+        <v>87.2666666666667</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="24.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="29.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="19.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="30.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2357,18 +3335,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -2381,18 +3359,18 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>10</v>
       </c>
       <c r="D4" s="1">
@@ -2402,7 +3380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -2419,24 +3397,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>15</v>
       </c>
-      <c r="E6" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -2453,7 +3431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -2470,7 +3448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -2487,7 +3465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2504,7 +3482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2521,7 +3499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2534,11 +3512,11 @@
       <c r="D12" s="1">
         <v>25</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2555,7 +3533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2572,7 +3550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2589,7 +3567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -2606,7 +3584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -2623,48 +3601,48 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
         <f>AVERAGE(A3:A17)</f>
         <v>10</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <f t="shared" ref="B18:E18" si="0">AVERAGE(B3:B17)</f>
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="C18" s="8">
+        <v>9.66666666666667</v>
+      </c>
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="D18" s="8">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>24.8</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+        <v>24.5333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <f>A18/10</f>
         <v>1</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <f>B18/10</f>
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="C19" s="9">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="C19" s="7">
         <f>C18/20</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D19" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D19" s="7">
         <f>D18/30</f>
-        <v>0.82666666666666666</v>
-      </c>
-      <c r="E19" s="9">
+        <v>0.826666666666667</v>
+      </c>
+      <c r="E19" s="7">
         <f>E18/30</f>
-        <v>0.82000000000000006</v>
+        <v>0.817777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -2674,29 +3652,30 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="27.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="33.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2711,18 +3690,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -2739,7 +3718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -2756,12 +3735,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>10</v>
       </c>
-      <c r="B5" s="7">
-        <v>8</v>
+      <c r="B5" s="5">
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>15</v>
@@ -2770,27 +3749,27 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>15</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -2803,11 +3782,11 @@
       <c r="D7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -2820,11 +3799,11 @@
       <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -2832,7 +3811,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>25</v>
@@ -2841,7 +3820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2854,11 +3833,11 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2875,7 +3854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2883,16 +3862,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>25</v>
       </c>
       <c r="E12" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2900,16 +3879,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
       </c>
-      <c r="E13" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2917,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>26</v>
@@ -2926,7 +3905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2934,16 +3913,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
         <v>26</v>
       </c>
       <c r="E15" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -2960,7 +3939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -2977,48 +3956,48 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
         <f>AVERAGE(A3:A17)</f>
         <v>10</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <f t="shared" ref="B18:E18" si="0">AVERAGE(B3:B17)</f>
-        <v>9.5333333333333332</v>
-      </c>
-      <c r="C18" s="8">
+        <v>9.66666666666667</v>
+      </c>
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
-        <v>16.066666666666666</v>
-      </c>
-      <c r="D18" s="8">
+        <v>16.6</v>
+      </c>
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>24.533333333333335</v>
-      </c>
-      <c r="E18" s="8">
+        <v>24.5333333333333</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>23.733333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+        <v>24.3333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <f>A18/10</f>
         <v>1</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <f>B18/10</f>
-        <v>0.95333333333333337</v>
-      </c>
-      <c r="C19" s="9">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="C19" s="7">
         <f>C18/20</f>
-        <v>0.80333333333333334</v>
-      </c>
-      <c r="D19" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="D19" s="7">
         <f>D18/30</f>
-        <v>0.81777777777777783</v>
-      </c>
-      <c r="E19" s="9">
+        <v>0.817777777777778</v>
+      </c>
+      <c r="E19" s="7">
         <f>E18/30</f>
-        <v>0.7911111111111111</v>
+        <v>0.811111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -3028,29 +4007,30 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="34.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="27.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3065,18 +4045,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -3093,7 +4073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -3110,7 +4090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -3127,24 +4107,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>15</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -3161,7 +4141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -3178,7 +4158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -3195,7 +4175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3212,7 +4192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3225,11 +4205,11 @@
       <c r="D11" s="1">
         <v>25</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3242,11 +4222,11 @@
       <c r="D12" s="1">
         <v>25</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3263,7 +4243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3280,7 +4260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -3297,7 +4277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -3314,7 +4294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -3331,96 +4311,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
         <f>AVERAGE(A3:A17)</f>
         <v>10</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <f t="shared" ref="B18:E18" si="0">AVERAGE(B3:B17)</f>
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="C18" s="8">
+        <v>9.66666666666667</v>
+      </c>
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
-        <v>16.866666666666667</v>
-      </c>
-      <c r="D18" s="8">
+        <v>16.8666666666667</v>
+      </c>
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>25.733333333333334</v>
-      </c>
-      <c r="E18" s="8">
+        <v>25.7333333333333</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>24.533333333333335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+        <v>24.5333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <f>A18/10</f>
         <v>1</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <f>B18/10</f>
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="C19" s="9">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="C19" s="7">
         <f>C18/20</f>
-        <v>0.84333333333333338</v>
-      </c>
-      <c r="D19" s="9">
+        <v>0.843333333333333</v>
+      </c>
+      <c r="D19" s="7">
         <f>D18/30</f>
-        <v>0.85777777777777786</v>
-      </c>
-      <c r="E19" s="9">
+        <v>0.857777777777778</v>
+      </c>
+      <c r="E19" s="7">
         <f>E18/30</f>
-        <v>0.81777777777777783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+        <v>0.817777777777778</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="30.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3435,18 +4404,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -3463,7 +4432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -3480,7 +4449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -3497,7 +4466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -3510,11 +4479,11 @@
       <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -3531,7 +4500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -3541,14 +4510,14 @@
       <c r="C8" s="1">
         <v>19</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -3558,14 +4527,14 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3582,7 +4551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3599,7 +4568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3616,7 +4585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3633,7 +4602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3650,7 +4619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -3667,7 +4636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -3684,7 +4653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -3701,48 +4670,48 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
         <f>AVERAGE(A3:A17)</f>
         <v>10</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <f t="shared" ref="B18:E18" si="0">AVERAGE(B3:B17)</f>
         <v>10</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>25.066666666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+        <v>25.0666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <f>A18/10</f>
         <v>1</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <f>B18/10</f>
         <v>1</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <f>C18/20</f>
         <v>0.85</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <f>D18/30</f>
-        <v>0.85333333333333339</v>
-      </c>
-      <c r="E19" s="9">
+        <v>0.853333333333333</v>
+      </c>
+      <c r="E19" s="7">
         <f>E18/30</f>
-        <v>0.8355555555555555</v>
+        <v>0.835555555555555</v>
       </c>
     </row>
   </sheetData>
@@ -3752,35 +4721,36 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F17" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="26.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="22.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -3789,18 +4759,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -3817,7 +4787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -3834,7 +4804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -3851,7 +4821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -3868,7 +4838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -3885,7 +4855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -3902,7 +4872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -3915,11 +4885,11 @@
       <c r="D9" s="1">
         <v>25</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3936,7 +4906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3953,7 +4923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3970,7 +4940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3987,7 +4957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4004,7 +4974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -4021,7 +4991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -4038,7 +5008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -4051,52 +5021,52 @@
       <c r="D17" s="1">
         <v>29</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
         <f>AVERAGE(A3:A17)</f>
         <v>10</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <f t="shared" ref="B18:E18" si="0">AVERAGE(B3:B17)</f>
         <v>10</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
-        <v>16.733333333333334</v>
-      </c>
-      <c r="D18" s="8">
+        <v>16.7333333333333</v>
+      </c>
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>25.733333333333334</v>
-      </c>
-      <c r="E18" s="8">
+        <v>25.7333333333333</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>24.8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <f>A18/10</f>
         <v>1</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <f>B18/10</f>
         <v>1</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <f>C18/20</f>
-        <v>0.83666666666666667</v>
-      </c>
-      <c r="D19" s="9">
+        <v>0.836666666666667</v>
+      </c>
+      <c r="D19" s="7">
         <f>D18/30</f>
-        <v>0.85777777777777786</v>
-      </c>
-      <c r="E19" s="9">
+        <v>0.857777777777778</v>
+      </c>
+      <c r="E19" s="7">
         <f>E18/30</f>
-        <v>0.82666666666666666</v>
+        <v>0.826666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4106,176 +5076,177 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="25.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="39.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="18.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="38.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.826666666666667</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.817777777777778</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.811111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.843333333333333</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.857777777777778</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.817777777777778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.853333333333333</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.835555555555555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.836666666666667</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.857777777777778</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.826666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.82666666666666666</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.82000000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.95333333333333337</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.80333333333333334</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.81777777777777783</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.7911111111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.84333333333333338</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.85777777777777786</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.81777777777777783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.85333333333333339</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.8355555555555555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.83666666666666667</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.85777777777777786</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.82666666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <f>AVERAGE(B2:B6)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="4">
         <f t="shared" ref="C7:F7" si="0">AVERAGE(C2:C6)</f>
-        <v>0.97733333333333339</v>
-      </c>
-      <c r="D7" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E7" s="10">
+        <v>0.838666666666667</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>0.84266666666666679</v>
-      </c>
-      <c r="F7" s="10">
+        <v>0.842666666666667</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0.81822222222222218</v>
+        <v>0.822222222222222</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/软件工程系列课程教学辅助网站/非受控文档/总结报告/总评.xlsx
+++ b/软件工程系列课程教学辅助网站/非受控文档/总结报告/总评.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总评" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -123,52 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +137,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +183,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -205,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,14 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -235,24 +213,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,19 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,31 +285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +303,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,25 +357,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,25 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,28 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,15 +496,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,17 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,16 +538,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,13 +1108,13 @@
                   <c:v>0.966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83</c:v>
+                  <c:v>0.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.817777777777778</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.811111111111111</c:v>
+                  <c:v>0.815555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,13 +2084,13 @@
                   <c:v>0.966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83</c:v>
+                  <c:v>0.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.817777777777778</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.811111111111111</c:v>
+                  <c:v>0.815555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,13 +2356,13 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.838666666666667</c:v>
+                  <c:v>0.839333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.842666666666667</c:v>
+                  <c:v>0.843111111111111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.822222222222222</c:v>
+                  <c:v>0.823111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,8 +2966,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -3103,7 +3103,7 @@
         <v>85</v>
       </c>
       <c r="H3" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1">
         <v>86</v>
@@ -3118,10 +3118,10 @@
         <v>90</v>
       </c>
       <c r="M3" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N3" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O3" s="1">
         <v>93</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q6" si="0">AVERAGE(B3:P3)</f>
-        <v>85.1333333333333</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3800,7 +3800,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3879,10 +3879,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5">
         <v>28</v>
@@ -3902,7 +3902,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3967,15 +3967,15 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
-        <v>16.6</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>24.5333333333333</v>
+        <v>24.6</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>24.3333333333333</v>
+        <v>24.4666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3989,15 +3989,15 @@
       </c>
       <c r="C19" s="7">
         <f>C18/20</f>
-        <v>0.83</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D19" s="7">
         <f>D18/30</f>
-        <v>0.817777777777778</v>
+        <v>0.82</v>
       </c>
       <c r="E19" s="7">
         <f>E18/30</f>
-        <v>0.811111111111111</v>
+        <v>0.815555555555555</v>
       </c>
     </row>
   </sheetData>
@@ -5086,7 +5086,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -5150,13 +5150,13 @@
         <v>0.966666666666667</v>
       </c>
       <c r="D3" s="4">
-        <v>0.83</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E3" s="4">
-        <v>0.817777777777778</v>
+        <v>0.82</v>
       </c>
       <c r="F3" s="4">
-        <v>0.811111111111111</v>
+        <v>0.815555555555555</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5233,15 +5233,15 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.838666666666667</v>
+        <v>0.839333333333333</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>0.842666666666667</v>
+        <v>0.843111111111111</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0.822222222222222</v>
+        <v>0.823111111111111</v>
       </c>
     </row>
   </sheetData>
